--- a/Desktop/Tuni Shops.xlsx
+++ b/Desktop/Tuni Shops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpandavu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtechcorp-my.sharepoint.com/personal/pandavulu_malireddi_igt_com/Documents/MyPersonal/MyPersonalFiles/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0566E3-5B76-4D09-BE92-476CC46EE631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BA0566E3-5B76-4D09-BE92-476CC46EE631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A25B131-C121-463C-BE2A-8DDE45742F8C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="3375" windowWidth="21660" windowHeight="11325" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -659,23 +659,23 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -689,7 +689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -697,7 +697,7 @@
         <v>28232</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -705,7 +705,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -713,22 +713,22 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
         <f>SUM(D2:D5)</f>
         <v>2963472</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -748,7 +748,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -765,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -782,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -799,7 +799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -810,7 +810,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>15</v>
       </c>
@@ -831,7 +831,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -855,7 +855,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>18</v>
       </c>
@@ -876,7 +876,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -884,7 +884,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
         <v>43</v>
       </c>
@@ -898,7 +898,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
         <v>46</v>
       </c>
@@ -906,7 +906,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
         <v>19</v>
       </c>
@@ -917,7 +917,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
       <c r="L29" t="s">
         <v>48</v>
       </c>
@@ -925,7 +925,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
       <c r="L30" t="s">
         <v>49</v>
       </c>
@@ -933,7 +933,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
         <v>51</v>
       </c>
@@ -951,15 +951,15 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -967,7 +967,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -975,7 +975,7 @@
         <v>93000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -993,21 +993,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89916B6-7EBF-4D11-9EC5-D9BD6C71B911}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -1015,12 +1015,12 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>65</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>66</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>67</v>
       </c>
@@ -1045,12 +1045,12 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>-120000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>70</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>-30000</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>-15000</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>72</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>-30000</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>74</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>-85000</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>73</v>
       </c>
@@ -1112,17 +1112,17 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1279,26 +1279,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DE4AF6-B226-4BFC-9969-831FA4D5F1A1}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="31.21875" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1316,13 +1316,13 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>SUM(B3:B4)</f>
         <v>3167000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>55</v>
       </c>
@@ -1330,10 +1330,10 @@
         <v>6068000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>56</v>
       </c>
@@ -1342,18 +1342,18 @@
         <v>3034000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>-184000</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>58</v>
       </c>
@@ -1401,13 +1401,13 @@
         <v>184000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>SUM(B12:B13)</f>
         <v>2901000</v>
       </c>
     </row>
-    <row r="28" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
         <v>61</v>
       </c>
